--- a/data/pca/factorExposure/factorExposure_2008-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-03.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01917402076149005</v>
+        <v>-0.01773131677722274</v>
       </c>
       <c r="C2">
-        <v>0.01290208015101759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01536688614080264</v>
+      </c>
+      <c r="D2">
+        <v>0.02132552745769737</v>
+      </c>
+      <c r="E2">
+        <v>0.01064134782440155</v>
+      </c>
+      <c r="F2">
+        <v>-0.005789629697891031</v>
+      </c>
+      <c r="G2">
+        <v>-0.02654753423446789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0813222749733479</v>
+        <v>-0.08484645454040009</v>
       </c>
       <c r="C4">
-        <v>0.08786458169809158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08993613998503976</v>
+      </c>
+      <c r="D4">
+        <v>-0.01437961516922616</v>
+      </c>
+      <c r="E4">
+        <v>0.03725857408234805</v>
+      </c>
+      <c r="F4">
+        <v>0.1009614527030305</v>
+      </c>
+      <c r="G4">
+        <v>0.04157801998521012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005321473066118202</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.000366452519930125</v>
+      </c>
+      <c r="D5">
+        <v>-0.001653488907311677</v>
+      </c>
+      <c r="E5">
+        <v>-0.004623124871564667</v>
+      </c>
+      <c r="F5">
+        <v>-0.00267131191497005</v>
+      </c>
+      <c r="G5">
+        <v>0.001122269754452339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1672966637044247</v>
+        <v>-0.1688704628956428</v>
       </c>
       <c r="C6">
-        <v>-0.01122610790533158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.003693551316170515</v>
+      </c>
+      <c r="D6">
+        <v>-0.07005006727027814</v>
+      </c>
+      <c r="E6">
+        <v>-0.06914811739661539</v>
+      </c>
+      <c r="F6">
+        <v>0.02993142771130914</v>
+      </c>
+      <c r="G6">
+        <v>-0.1456059731428727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05168662679303711</v>
+        <v>-0.05384261845324</v>
       </c>
       <c r="C7">
-        <v>0.0587880446084123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06060662755514899</v>
+      </c>
+      <c r="D7">
+        <v>0.002435633760465805</v>
+      </c>
+      <c r="E7">
+        <v>0.09854668887438645</v>
+      </c>
+      <c r="F7">
+        <v>0.07669116669837218</v>
+      </c>
+      <c r="G7">
+        <v>0.02315305863195985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05014862277697619</v>
+        <v>-0.04836954826527167</v>
       </c>
       <c r="C8">
-        <v>0.05910618145784156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05688377735825817</v>
+      </c>
+      <c r="D8">
+        <v>0.04558728783855258</v>
+      </c>
+      <c r="E8">
+        <v>0.02590917990971958</v>
+      </c>
+      <c r="F8">
+        <v>-0.0221465214301085</v>
+      </c>
+      <c r="G8">
+        <v>-0.004312738327596603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05645139098045068</v>
+        <v>-0.06181062815607542</v>
       </c>
       <c r="C9">
-        <v>0.09564633345699085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09532460424068522</v>
+      </c>
+      <c r="D9">
+        <v>-0.01803029258717403</v>
+      </c>
+      <c r="E9">
+        <v>0.03802478747035149</v>
+      </c>
+      <c r="F9">
+        <v>0.1043300968301307</v>
+      </c>
+      <c r="G9">
+        <v>0.05760902188731779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1217364230159234</v>
+        <v>-0.1054246264993562</v>
       </c>
       <c r="C10">
-        <v>-0.1589400266737462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1412126830027851</v>
+      </c>
+      <c r="D10">
+        <v>0.07839518370998715</v>
+      </c>
+      <c r="E10">
+        <v>0.01451301427538535</v>
+      </c>
+      <c r="F10">
+        <v>-0.05330818288444941</v>
+      </c>
+      <c r="G10">
+        <v>0.05721206440277382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08033720448396675</v>
+        <v>-0.07734078859562744</v>
       </c>
       <c r="C11">
-        <v>0.1373328998579961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1359149219535649</v>
+      </c>
+      <c r="D11">
+        <v>0.01477432242531019</v>
+      </c>
+      <c r="E11">
+        <v>0.04152927252551618</v>
+      </c>
+      <c r="F11">
+        <v>0.07692726996333266</v>
+      </c>
+      <c r="G11">
+        <v>0.09890669915232182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0812857528221036</v>
+        <v>-0.07686197260535658</v>
       </c>
       <c r="C12">
-        <v>0.1612853243851006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1592977061899872</v>
+      </c>
+      <c r="D12">
+        <v>0.007390974174576033</v>
+      </c>
+      <c r="E12">
+        <v>0.06244952952174489</v>
+      </c>
+      <c r="F12">
+        <v>0.06551098686434621</v>
+      </c>
+      <c r="G12">
+        <v>0.09212515459203077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04209846153923533</v>
+        <v>-0.0444076615820112</v>
       </c>
       <c r="C13">
-        <v>0.07001705705206457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07472790698602047</v>
+      </c>
+      <c r="D13">
+        <v>0.02020543099524871</v>
+      </c>
+      <c r="E13">
+        <v>0.07470736706152271</v>
+      </c>
+      <c r="F13">
+        <v>0.05343274985332357</v>
+      </c>
+      <c r="G13">
+        <v>0.03005805399819621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0185935330133287</v>
+        <v>-0.02106686738183788</v>
       </c>
       <c r="C14">
-        <v>0.04742498700677397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05034578161036463</v>
+      </c>
+      <c r="D14">
+        <v>0.03086462729674295</v>
+      </c>
+      <c r="E14">
+        <v>0.03154259877630356</v>
+      </c>
+      <c r="F14">
+        <v>0.05725197951349385</v>
+      </c>
+      <c r="G14">
+        <v>0.05020398572497461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03080883639982767</v>
+        <v>-0.03104572017448065</v>
       </c>
       <c r="C15">
-        <v>0.06510957290773782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06274902011482746</v>
+      </c>
+      <c r="D15">
+        <v>-0.02623997213432526</v>
+      </c>
+      <c r="E15">
+        <v>0.04093949391040809</v>
+      </c>
+      <c r="F15">
+        <v>0.03204689383538097</v>
+      </c>
+      <c r="G15">
+        <v>0.01933838186017958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0590413701935674</v>
+        <v>-0.05662537660167966</v>
       </c>
       <c r="C16">
-        <v>0.1576926225206374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1568057402315171</v>
+      </c>
+      <c r="D16">
+        <v>0.01180427344769401</v>
+      </c>
+      <c r="E16">
+        <v>0.02259107476194035</v>
+      </c>
+      <c r="F16">
+        <v>0.07240693276279098</v>
+      </c>
+      <c r="G16">
+        <v>0.1207855184988108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008995723769907002</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004484806448939131</v>
+      </c>
+      <c r="D17">
+        <v>-0.005154472046811551</v>
+      </c>
+      <c r="E17">
+        <v>0.0037736377831302</v>
+      </c>
+      <c r="F17">
+        <v>-0.01734479824298093</v>
+      </c>
+      <c r="G17">
+        <v>0.002747945227252264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04865952714846788</v>
+        <v>-0.05883501555925096</v>
       </c>
       <c r="C18">
-        <v>0.05503422195241232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04900640926610786</v>
+      </c>
+      <c r="D18">
+        <v>-0.03436632314700992</v>
+      </c>
+      <c r="E18">
+        <v>-0.0630766670384683</v>
+      </c>
+      <c r="F18">
+        <v>-0.04205459159384736</v>
+      </c>
+      <c r="G18">
+        <v>-0.1994097725130073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06096971600325377</v>
+        <v>-0.05965691611608697</v>
       </c>
       <c r="C20">
-        <v>0.1096365082289728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1063050100417474</v>
+      </c>
+      <c r="D20">
+        <v>-0.01031922380967547</v>
+      </c>
+      <c r="E20">
+        <v>0.05688461508934013</v>
+      </c>
+      <c r="F20">
+        <v>0.06173792725491441</v>
+      </c>
+      <c r="G20">
+        <v>0.04978999070153886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04493624230586939</v>
+        <v>-0.04682742087130701</v>
       </c>
       <c r="C21">
-        <v>0.0709538724252442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06680957467762308</v>
+      </c>
+      <c r="D21">
+        <v>0.0109435594615171</v>
+      </c>
+      <c r="E21">
+        <v>0.02926598795901014</v>
+      </c>
+      <c r="F21">
+        <v>0.06577521641310491</v>
+      </c>
+      <c r="G21">
+        <v>0.07942986092858238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04424959361484291</v>
+        <v>-0.04437057022929929</v>
       </c>
       <c r="C22">
-        <v>0.03905460231360049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04323948589775238</v>
+      </c>
+      <c r="D22">
+        <v>0.0918613541605988</v>
+      </c>
+      <c r="E22">
+        <v>-0.1771623048643106</v>
+      </c>
+      <c r="F22">
+        <v>-0.0839396694324698</v>
+      </c>
+      <c r="G22">
+        <v>0.03042833617969513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0442599883675458</v>
+        <v>-0.0443796095139531</v>
       </c>
       <c r="C23">
-        <v>0.03904780967958356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04323362818201852</v>
+      </c>
+      <c r="D23">
+        <v>0.09190705994327515</v>
+      </c>
+      <c r="E23">
+        <v>-0.1771999805600467</v>
+      </c>
+      <c r="F23">
+        <v>-0.08399658173620482</v>
+      </c>
+      <c r="G23">
+        <v>0.03043757243157652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06538325899165813</v>
+        <v>-0.06375512736668228</v>
       </c>
       <c r="C24">
-        <v>0.1411375606589058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1373627047495622</v>
+      </c>
+      <c r="D24">
+        <v>0.008668241630165288</v>
+      </c>
+      <c r="E24">
+        <v>0.04187026834844022</v>
+      </c>
+      <c r="F24">
+        <v>0.07216855470502823</v>
+      </c>
+      <c r="G24">
+        <v>0.06202757116485796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07467552844928296</v>
+        <v>-0.0716438127923915</v>
       </c>
       <c r="C25">
-        <v>0.1227964916526016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1208458282604186</v>
+      </c>
+      <c r="D25">
+        <v>0.01205317184361849</v>
+      </c>
+      <c r="E25">
+        <v>0.07413689789363316</v>
+      </c>
+      <c r="F25">
+        <v>0.07991482196369912</v>
+      </c>
+      <c r="G25">
+        <v>0.08856650102809424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.06006650786156772</v>
+        <v>-0.06345403276142352</v>
       </c>
       <c r="C26">
-        <v>0.0729918663055367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07674500353186642</v>
+      </c>
+      <c r="D26">
+        <v>0.03374054879165745</v>
+      </c>
+      <c r="E26">
+        <v>0.07385551460195423</v>
+      </c>
+      <c r="F26">
+        <v>0.05453325602472429</v>
+      </c>
+      <c r="G26">
+        <v>0.1234878642128042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1698278922253119</v>
+        <v>-0.1745187749047432</v>
       </c>
       <c r="C28">
-        <v>-0.2270857642001195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2299830840519827</v>
+      </c>
+      <c r="D28">
+        <v>0.08746262276016864</v>
+      </c>
+      <c r="E28">
+        <v>0.1216278798118773</v>
+      </c>
+      <c r="F28">
+        <v>0.04156149071079048</v>
+      </c>
+      <c r="G28">
+        <v>0.09606828414881424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02634199917954323</v>
+        <v>-0.02747368099116191</v>
       </c>
       <c r="C29">
-        <v>0.05601725499922339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05637112385566695</v>
+      </c>
+      <c r="D29">
+        <v>0.04894441078182163</v>
+      </c>
+      <c r="E29">
+        <v>0.02516905334172973</v>
+      </c>
+      <c r="F29">
+        <v>0.04424037540594881</v>
+      </c>
+      <c r="G29">
+        <v>0.04341939906144227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02786035859547539</v>
+        <v>-0.03178635477311541</v>
       </c>
       <c r="C30">
-        <v>0.06968952976676517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.074934601690975</v>
+      </c>
+      <c r="D30">
+        <v>-0.04414123956450337</v>
+      </c>
+      <c r="E30">
+        <v>0.1139681854584181</v>
+      </c>
+      <c r="F30">
+        <v>0.08608168458957897</v>
+      </c>
+      <c r="G30">
+        <v>0.02178005339492267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05570178118922827</v>
+        <v>-0.05433920001433005</v>
       </c>
       <c r="C31">
-        <v>0.03399888837204425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03659487508354341</v>
+      </c>
+      <c r="D31">
+        <v>0.02293125895883751</v>
+      </c>
+      <c r="E31">
+        <v>-0.04036690661821758</v>
+      </c>
+      <c r="F31">
+        <v>0.036623607764272</v>
+      </c>
+      <c r="G31">
+        <v>0.03676300790495107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04135796629231548</v>
+        <v>-0.0453520303703628</v>
       </c>
       <c r="C32">
-        <v>0.05199794758438396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04890772653541256</v>
+      </c>
+      <c r="D32">
+        <v>-0.007753439210596091</v>
+      </c>
+      <c r="E32">
+        <v>0.04393691942815058</v>
+      </c>
+      <c r="F32">
+        <v>0.0005434501767204641</v>
+      </c>
+      <c r="G32">
+        <v>0.0361648204929376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07848008451322457</v>
+        <v>-0.082304757144399</v>
       </c>
       <c r="C33">
-        <v>0.1163457419991648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1246745057019952</v>
+      </c>
+      <c r="D33">
+        <v>0.01930755530996664</v>
+      </c>
+      <c r="E33">
+        <v>0.03836956856130794</v>
+      </c>
+      <c r="F33">
+        <v>0.04477577864443798</v>
+      </c>
+      <c r="G33">
+        <v>0.02147583137696834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05225288605663581</v>
+        <v>-0.05138673755890736</v>
       </c>
       <c r="C34">
-        <v>0.1255563290963113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1246694222827531</v>
+      </c>
+      <c r="D34">
+        <v>-0.01239511637486826</v>
+      </c>
+      <c r="E34">
+        <v>0.02035632806892084</v>
+      </c>
+      <c r="F34">
+        <v>0.0521009927831043</v>
+      </c>
+      <c r="G34">
+        <v>0.1446552300192781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02625359581385486</v>
+        <v>-0.02867426436389792</v>
       </c>
       <c r="C35">
-        <v>0.01622009687221843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01949081216815716</v>
+      </c>
+      <c r="D35">
+        <v>0.008461871025727456</v>
+      </c>
+      <c r="E35">
+        <v>0.01864759920997535</v>
+      </c>
+      <c r="F35">
+        <v>0.0042114526682026</v>
+      </c>
+      <c r="G35">
+        <v>0.04102368564055167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02612913865548218</v>
+        <v>-0.02863251935136566</v>
       </c>
       <c r="C36">
-        <v>0.05473219743081088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05281276207789295</v>
+      </c>
+      <c r="D36">
+        <v>-0.02143277076260863</v>
+      </c>
+      <c r="E36">
+        <v>-0.02079775731038953</v>
+      </c>
+      <c r="F36">
+        <v>0.008062973776479198</v>
+      </c>
+      <c r="G36">
+        <v>0.1059670587383549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.000544456767881366</v>
+        <v>-0.00509645259655877</v>
       </c>
       <c r="C37">
-        <v>-0.0004192605590543535</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006467289498067404</v>
+      </c>
+      <c r="D37">
+        <v>0.008162893559327276</v>
+      </c>
+      <c r="E37">
+        <v>0.007587310502842708</v>
+      </c>
+      <c r="F37">
+        <v>0.01235462170421989</v>
+      </c>
+      <c r="G37">
+        <v>-0.005058197684412211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08172181581345489</v>
+        <v>-0.07632412511467095</v>
       </c>
       <c r="C39">
-        <v>0.1492663780708044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1431194698517299</v>
+      </c>
+      <c r="D39">
+        <v>0.06818182596339388</v>
+      </c>
+      <c r="E39">
+        <v>0.05454897838959985</v>
+      </c>
+      <c r="F39">
+        <v>0.08775402711989415</v>
+      </c>
+      <c r="G39">
+        <v>0.1712561941642897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05473910790045992</v>
+        <v>-0.05620419803722845</v>
       </c>
       <c r="C40">
-        <v>0.07556335058786226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08162877120101243</v>
+      </c>
+      <c r="D40">
+        <v>0.01285328276608215</v>
+      </c>
+      <c r="E40">
+        <v>0.06547870356543148</v>
+      </c>
+      <c r="F40">
+        <v>-0.02263304476340814</v>
+      </c>
+      <c r="G40">
+        <v>0.02340624497052352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03158236024201583</v>
+        <v>-0.0309992556673617</v>
       </c>
       <c r="C41">
-        <v>0.02378583571455144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02576597336858034</v>
+      </c>
+      <c r="D41">
+        <v>-0.001512029453775807</v>
+      </c>
+      <c r="E41">
+        <v>0.003863561531941866</v>
+      </c>
+      <c r="F41">
+        <v>-0.0194852670898363</v>
+      </c>
+      <c r="G41">
+        <v>0.00906884901369699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04580622163500075</v>
+        <v>-0.04344473859525984</v>
       </c>
       <c r="C43">
-        <v>0.04103938317890013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03892242880463218</v>
+      </c>
+      <c r="D43">
+        <v>0.03663460828941782</v>
+      </c>
+      <c r="E43">
+        <v>-0.02929942535702708</v>
+      </c>
+      <c r="F43">
+        <v>0.002744154792487287</v>
+      </c>
+      <c r="G43">
+        <v>0.04711892852477628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05605288366313612</v>
+        <v>-0.06023395791779727</v>
       </c>
       <c r="C44">
-        <v>0.09714509655586147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09838583470493065</v>
+      </c>
+      <c r="D44">
+        <v>-0.08881239414315278</v>
+      </c>
+      <c r="E44">
+        <v>0.08436741943197247</v>
+      </c>
+      <c r="F44">
+        <v>0.09844910897018186</v>
+      </c>
+      <c r="G44">
+        <v>0.1127309638977306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0009836367535600266</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0005979801629285625</v>
+      </c>
+      <c r="D45">
+        <v>0.0006034311408599216</v>
+      </c>
+      <c r="E45">
+        <v>-0.000761882630170068</v>
+      </c>
+      <c r="F45">
+        <v>0.006954670358793066</v>
+      </c>
+      <c r="G45">
+        <v>-0.006871842245841472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02939689401829437</v>
+        <v>-0.02987430995928872</v>
       </c>
       <c r="C46">
-        <v>0.04552207702448158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04359199901082312</v>
+      </c>
+      <c r="D46">
+        <v>0.0595046980641682</v>
+      </c>
+      <c r="E46">
+        <v>0.00742254034878108</v>
+      </c>
+      <c r="F46">
+        <v>0.04682562648302295</v>
+      </c>
+      <c r="G46">
+        <v>0.06345214257754947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05874003386148803</v>
+        <v>-0.05600511740224329</v>
       </c>
       <c r="C47">
-        <v>0.0473081523809501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04589033967329577</v>
+      </c>
+      <c r="D47">
+        <v>0.03549718316426269</v>
+      </c>
+      <c r="E47">
+        <v>-0.1022930542745035</v>
+      </c>
+      <c r="F47">
+        <v>-0.02231600088252594</v>
+      </c>
+      <c r="G47">
+        <v>-0.03947166283026503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04916046158064141</v>
+        <v>-0.05074265343529655</v>
       </c>
       <c r="C48">
-        <v>0.06625497963941565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0660766193776295</v>
+      </c>
+      <c r="D48">
+        <v>0.007585049401893793</v>
+      </c>
+      <c r="E48">
+        <v>0.03883081661755071</v>
+      </c>
+      <c r="F48">
+        <v>0.07940146604518393</v>
+      </c>
+      <c r="G48">
+        <v>0.0276658263232009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1806505789255062</v>
+        <v>-0.188721230297594</v>
       </c>
       <c r="C49">
-        <v>-0.03077189996019754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02630511281563556</v>
+      </c>
+      <c r="D49">
+        <v>-0.07053121367346532</v>
+      </c>
+      <c r="E49">
+        <v>0.1036877422690238</v>
+      </c>
+      <c r="F49">
+        <v>-0.01345459754837323</v>
+      </c>
+      <c r="G49">
+        <v>-0.143659988407063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05475754193953671</v>
+        <v>-0.05414613014792564</v>
       </c>
       <c r="C50">
-        <v>0.03580361544433475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03847544915940464</v>
+      </c>
+      <c r="D50">
+        <v>0.004556718864317308</v>
+      </c>
+      <c r="E50">
+        <v>-0.03477210710446416</v>
+      </c>
+      <c r="F50">
+        <v>0.04857520078326593</v>
+      </c>
+      <c r="G50">
+        <v>0.02932277000415742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1402781020036441</v>
+        <v>-0.1361264444239637</v>
       </c>
       <c r="C52">
-        <v>0.03682222179219595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03383110465064578</v>
+      </c>
+      <c r="D52">
+        <v>-0.05979402529686925</v>
+      </c>
+      <c r="E52">
+        <v>-0.1432416917866013</v>
+      </c>
+      <c r="F52">
+        <v>0.04351675040016557</v>
+      </c>
+      <c r="G52">
+        <v>0.05815727150203547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1663875413454141</v>
+        <v>-0.1605753775280369</v>
       </c>
       <c r="C53">
-        <v>-0.00743063754508639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.006673460014089107</v>
+      </c>
+      <c r="D53">
+        <v>-0.08754111450012725</v>
+      </c>
+      <c r="E53">
+        <v>-0.188741201415292</v>
+      </c>
+      <c r="F53">
+        <v>0.05972703556187705</v>
+      </c>
+      <c r="G53">
+        <v>-0.03834976774630818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01438782692718477</v>
+        <v>-0.01537070664500011</v>
       </c>
       <c r="C54">
-        <v>0.04324567676304004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04327204163136156</v>
+      </c>
+      <c r="D54">
+        <v>0.0155948147007108</v>
+      </c>
+      <c r="E54">
+        <v>0.02843478241426542</v>
+      </c>
+      <c r="F54">
+        <v>0.04648052693846033</v>
+      </c>
+      <c r="G54">
+        <v>0.07243729149736844</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121350486750053</v>
+        <v>-0.119907861386963</v>
       </c>
       <c r="C55">
-        <v>0.01440533599183524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01425835336712999</v>
+      </c>
+      <c r="D55">
+        <v>-0.0313651834628426</v>
+      </c>
+      <c r="E55">
+        <v>-0.1832335045807248</v>
+      </c>
+      <c r="F55">
+        <v>0.0904403007703901</v>
+      </c>
+      <c r="G55">
+        <v>0.0736512831948309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1806399964187627</v>
+        <v>-0.1759124913617959</v>
       </c>
       <c r="C56">
-        <v>-0.01222635679658337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01416531208234487</v>
+      </c>
+      <c r="D56">
+        <v>-0.09785900126779447</v>
+      </c>
+      <c r="E56">
+        <v>-0.2139864874758612</v>
+      </c>
+      <c r="F56">
+        <v>0.03723419601488047</v>
+      </c>
+      <c r="G56">
+        <v>-0.03944195100056595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04078092085108967</v>
+        <v>-0.04089970055428425</v>
       </c>
       <c r="C58">
-        <v>0.09741768119451742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1078634069535236</v>
+      </c>
+      <c r="D58">
+        <v>0.04117825244720477</v>
+      </c>
+      <c r="E58">
+        <v>0.02307514739930572</v>
+      </c>
+      <c r="F58">
+        <v>0.02713557339085533</v>
+      </c>
+      <c r="G58">
+        <v>0.04259870321456295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1782932988624242</v>
+        <v>-0.1850031244211493</v>
       </c>
       <c r="C59">
-        <v>-0.1610254097821782</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1683413843343731</v>
+      </c>
+      <c r="D59">
+        <v>0.1130276891847526</v>
+      </c>
+      <c r="E59">
+        <v>0.05957737833249931</v>
+      </c>
+      <c r="F59">
+        <v>-0.007640156855917509</v>
+      </c>
+      <c r="G59">
+        <v>0.09096509774686157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.206954758065243</v>
+        <v>-0.2055178082066023</v>
       </c>
       <c r="C60">
-        <v>0.006683250642485533</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01000397978643897</v>
+      </c>
+      <c r="D60">
+        <v>-0.07576032984650555</v>
+      </c>
+      <c r="E60">
+        <v>-0.01386666631890058</v>
+      </c>
+      <c r="F60">
+        <v>-0.0755905517944945</v>
+      </c>
+      <c r="G60">
+        <v>-0.2091864904502021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05877658275394522</v>
+        <v>-0.05767912700779711</v>
       </c>
       <c r="C61">
-        <v>0.1300365801879909</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1260445326790081</v>
+      </c>
+      <c r="D61">
+        <v>0.03451175604378279</v>
+      </c>
+      <c r="E61">
+        <v>0.0736551562260436</v>
+      </c>
+      <c r="F61">
+        <v>0.04988331787738531</v>
+      </c>
+      <c r="G61">
+        <v>0.1108674052979681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1707503978601461</v>
+        <v>-0.1670676993769292</v>
       </c>
       <c r="C62">
-        <v>-0.008984370024836643</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.009923760193618769</v>
+      </c>
+      <c r="D62">
+        <v>-0.07316144216981695</v>
+      </c>
+      <c r="E62">
+        <v>-0.1958967731962145</v>
+      </c>
+      <c r="F62">
+        <v>0.02414793500724857</v>
+      </c>
+      <c r="G62">
+        <v>0.008775204373143657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0427605093491409</v>
+        <v>-0.04520945268028669</v>
       </c>
       <c r="C63">
-        <v>0.07704483213482853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08091123552546008</v>
+      </c>
+      <c r="D63">
+        <v>0.01986778547239063</v>
+      </c>
+      <c r="E63">
+        <v>0.02916799074011158</v>
+      </c>
+      <c r="F63">
+        <v>0.01325221697027329</v>
+      </c>
+      <c r="G63">
+        <v>0.1015416599596536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1143014356633851</v>
+        <v>-0.1122093599759554</v>
       </c>
       <c r="C64">
-        <v>0.06229774347199401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06335090593740828</v>
+      </c>
+      <c r="D64">
+        <v>-0.05602018232862878</v>
+      </c>
+      <c r="E64">
+        <v>-0.01098280792144573</v>
+      </c>
+      <c r="F64">
+        <v>0.005808196157263549</v>
+      </c>
+      <c r="G64">
+        <v>-0.02039393752882641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1550797658703706</v>
+        <v>-0.1585784596467052</v>
       </c>
       <c r="C65">
-        <v>-0.05594976317402981</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04463469279123119</v>
+      </c>
+      <c r="D65">
+        <v>-0.02423225376555853</v>
+      </c>
+      <c r="E65">
+        <v>-0.04872985083577337</v>
+      </c>
+      <c r="F65">
+        <v>0.04769476524792266</v>
+      </c>
+      <c r="G65">
+        <v>-0.149358952639138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09826636217518807</v>
+        <v>-0.09371269135048792</v>
       </c>
       <c r="C66">
-        <v>0.1271782194911873</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1252354511723572</v>
+      </c>
+      <c r="D66">
+        <v>0.03782379460566778</v>
+      </c>
+      <c r="E66">
+        <v>0.06029899991822025</v>
+      </c>
+      <c r="F66">
+        <v>0.06036636263950371</v>
+      </c>
+      <c r="G66">
+        <v>0.1516458201851713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05025257052948396</v>
+        <v>-0.04356831241680624</v>
       </c>
       <c r="C67">
-        <v>0.08627996180372864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07864652712705762</v>
+      </c>
+      <c r="D67">
+        <v>0.04096496560934558</v>
+      </c>
+      <c r="E67">
+        <v>-0.07176995809549278</v>
+      </c>
+      <c r="F67">
+        <v>-0.03661844258126119</v>
+      </c>
+      <c r="G67">
+        <v>0.02396042419827026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1472877248840934</v>
+        <v>-0.1472073487207113</v>
       </c>
       <c r="C68">
-        <v>-0.2604698191980782</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2541669323428048</v>
+      </c>
+      <c r="D68">
+        <v>0.06618786297337416</v>
+      </c>
+      <c r="E68">
+        <v>0.1273044498588217</v>
+      </c>
+      <c r="F68">
+        <v>0.08598289392775703</v>
+      </c>
+      <c r="G68">
+        <v>0.02777252890247789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03834469729419621</v>
+        <v>-0.03613805845701802</v>
       </c>
       <c r="C69">
-        <v>0.02483935590478123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02787751109991446</v>
+      </c>
+      <c r="D69">
+        <v>-0.008166720520402642</v>
+      </c>
+      <c r="E69">
+        <v>-0.06581489958672174</v>
+      </c>
+      <c r="F69">
+        <v>-0.02931994178482474</v>
+      </c>
+      <c r="G69">
+        <v>0.02680208551126539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07793357479765523</v>
+        <v>-0.07642242051805746</v>
       </c>
       <c r="C70">
-        <v>0.1044793396535472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1065638693056456</v>
+      </c>
+      <c r="D70">
+        <v>0.05320835098488393</v>
+      </c>
+      <c r="E70">
+        <v>0.0982838381658545</v>
+      </c>
+      <c r="F70">
+        <v>-0.01511946268660899</v>
+      </c>
+      <c r="G70">
+        <v>-0.03562367165425032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1685121927457932</v>
+        <v>-0.1706636368626104</v>
       </c>
       <c r="C71">
-        <v>-0.2611440124452788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2583793050851037</v>
+      </c>
+      <c r="D71">
+        <v>0.07781781864694111</v>
+      </c>
+      <c r="E71">
+        <v>0.1399065230433119</v>
+      </c>
+      <c r="F71">
+        <v>0.07312111113110527</v>
+      </c>
+      <c r="G71">
+        <v>0.006787420819734056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1426428570956958</v>
+        <v>-0.1479821019750431</v>
       </c>
       <c r="C72">
-        <v>0.01234314731383203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.01077377726751726</v>
+      </c>
+      <c r="D72">
+        <v>-0.01086671590671043</v>
+      </c>
+      <c r="E72">
+        <v>-0.118835218058838</v>
+      </c>
+      <c r="F72">
+        <v>0.01401962232680254</v>
+      </c>
+      <c r="G72">
+        <v>0.0387430846513851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1841508815387768</v>
+        <v>-0.1950104738231791</v>
       </c>
       <c r="C73">
-        <v>0.02480817590523753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02780969884736305</v>
+      </c>
+      <c r="D73">
+        <v>-0.06592236975495094</v>
+      </c>
+      <c r="E73">
+        <v>-0.033286752419662</v>
+      </c>
+      <c r="F73">
+        <v>-0.04596058686967032</v>
+      </c>
+      <c r="G73">
+        <v>-0.05065458060933697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07968085801929187</v>
+        <v>-0.08039113434625071</v>
       </c>
       <c r="C74">
-        <v>0.006171158922540138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01195953965508327</v>
+      </c>
+      <c r="D74">
+        <v>-0.08565755187447005</v>
+      </c>
+      <c r="E74">
+        <v>-0.09444227239286505</v>
+      </c>
+      <c r="F74">
+        <v>0.01295155446178659</v>
+      </c>
+      <c r="G74">
+        <v>-0.009683099721167009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1206032002687604</v>
+        <v>-0.1132991746743955</v>
       </c>
       <c r="C75">
-        <v>0.02949206787600483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02976551951908232</v>
+      </c>
+      <c r="D75">
+        <v>-0.0293429856996882</v>
+      </c>
+      <c r="E75">
+        <v>-0.1888425277817825</v>
+      </c>
+      <c r="F75">
+        <v>0.01681915253599921</v>
+      </c>
+      <c r="G75">
+        <v>-0.004688690438025369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08080903220144672</v>
+        <v>-0.0882267208484008</v>
       </c>
       <c r="C77">
-        <v>0.1184908014136216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.125097187420931</v>
+      </c>
+      <c r="D77">
+        <v>-0.002067865078407859</v>
+      </c>
+      <c r="E77">
+        <v>0.1080797803482077</v>
+      </c>
+      <c r="F77">
+        <v>0.1339487638068533</v>
+      </c>
+      <c r="G77">
+        <v>-0.1500979489630612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07303429634182777</v>
+        <v>-0.07976701198417224</v>
       </c>
       <c r="C78">
-        <v>0.1373428141582313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1409059595533438</v>
+      </c>
+      <c r="D78">
+        <v>0.07816485751314181</v>
+      </c>
+      <c r="E78">
+        <v>-0.006091595507642418</v>
+      </c>
+      <c r="F78">
+        <v>0.09876536345994329</v>
+      </c>
+      <c r="G78">
+        <v>-0.236143834970589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1705475870022294</v>
+        <v>-0.1658912041876215</v>
       </c>
       <c r="C79">
-        <v>0.02296567839461426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02168755425143571</v>
+      </c>
+      <c r="D79">
+        <v>-0.02167317927999449</v>
+      </c>
+      <c r="E79">
+        <v>-0.1591896733681459</v>
+      </c>
+      <c r="F79">
+        <v>0.03140624415271013</v>
+      </c>
+      <c r="G79">
+        <v>-0.007887611435753115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07830027521170521</v>
+        <v>-0.07411346455282172</v>
       </c>
       <c r="C80">
-        <v>0.0807990846685737</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07658135124989569</v>
+      </c>
+      <c r="D80">
+        <v>0.03909985599843887</v>
+      </c>
+      <c r="E80">
+        <v>0.08108313779949405</v>
+      </c>
+      <c r="F80">
+        <v>-0.04825645441801783</v>
+      </c>
+      <c r="G80">
+        <v>0.117323048310094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1090779638572441</v>
+        <v>-0.1030336591924268</v>
       </c>
       <c r="C81">
-        <v>-0.008185554215633705</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.007629769503471202</v>
+      </c>
+      <c r="D81">
+        <v>-0.01203205898048796</v>
+      </c>
+      <c r="E81">
+        <v>-0.1820864950775405</v>
+      </c>
+      <c r="F81">
+        <v>-0.03919899471911281</v>
+      </c>
+      <c r="G81">
+        <v>0.003696212967651368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1634641498725622</v>
+        <v>-0.1593228957003775</v>
       </c>
       <c r="C82">
-        <v>-0.01776719323497831</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01513243876705855</v>
+      </c>
+      <c r="D82">
+        <v>-0.1233162006681482</v>
+      </c>
+      <c r="E82">
+        <v>-0.1773507687273303</v>
+      </c>
+      <c r="F82">
+        <v>0.02073583489283235</v>
+      </c>
+      <c r="G82">
+        <v>-0.03464221389121034</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05351816404288903</v>
+        <v>-0.05056508438167894</v>
       </c>
       <c r="C83">
-        <v>0.06246299613344993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05628847401794534</v>
+      </c>
+      <c r="D83">
+        <v>0.01842933810150992</v>
+      </c>
+      <c r="E83">
+        <v>0.01531910314215089</v>
+      </c>
+      <c r="F83">
+        <v>-0.01449167555025571</v>
+      </c>
+      <c r="G83">
+        <v>0.05873440942749619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04790295439430847</v>
+        <v>-0.04708299797637349</v>
       </c>
       <c r="C84">
-        <v>0.076550208005686</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07450119196639167</v>
+      </c>
+      <c r="D84">
+        <v>0.01719298016394237</v>
+      </c>
+      <c r="E84">
+        <v>-0.01053584000060694</v>
+      </c>
+      <c r="F84">
+        <v>0.03954971856812274</v>
+      </c>
+      <c r="G84">
+        <v>0.06468396065572152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1390911657790058</v>
+        <v>-0.1343089038768337</v>
       </c>
       <c r="C85">
-        <v>0.00703878610151764</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.00632928040521692</v>
+      </c>
+      <c r="D85">
+        <v>-0.05668499946159285</v>
+      </c>
+      <c r="E85">
+        <v>-0.1547052393379791</v>
+      </c>
+      <c r="F85">
+        <v>0.06803891429568264</v>
+      </c>
+      <c r="G85">
+        <v>0.01603867404918605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08423153121091109</v>
+        <v>-0.08451528959909432</v>
       </c>
       <c r="C86">
-        <v>0.1506912839494517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1574003875861895</v>
+      </c>
+      <c r="D86">
+        <v>0.8386637898396109</v>
+      </c>
+      <c r="E86">
+        <v>-0.1221060348258803</v>
+      </c>
+      <c r="F86">
+        <v>-0.2760630239917109</v>
+      </c>
+      <c r="G86">
+        <v>-0.09714938097819704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08367860141643971</v>
+        <v>-0.07947943225893703</v>
       </c>
       <c r="C87">
-        <v>0.1005852015354242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09617858915390369</v>
+      </c>
+      <c r="D87">
+        <v>-0.06043754786130066</v>
+      </c>
+      <c r="E87">
+        <v>0.2864884765015493</v>
+      </c>
+      <c r="F87">
+        <v>0.05871633048795299</v>
+      </c>
+      <c r="G87">
+        <v>0.04377894040658011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06010233837509479</v>
+        <v>-0.05951960502408912</v>
       </c>
       <c r="C88">
-        <v>0.0648386425808463</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06497415619346689</v>
+      </c>
+      <c r="D88">
+        <v>-0.02021095361963958</v>
+      </c>
+      <c r="E88">
+        <v>-0.04350677701892281</v>
+      </c>
+      <c r="F88">
+        <v>0.005819867932105887</v>
+      </c>
+      <c r="G88">
+        <v>-0.01539476931962126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1534690698115997</v>
+        <v>-0.1518504008453682</v>
       </c>
       <c r="C89">
-        <v>-0.2039196051987816</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2096011869460621</v>
+      </c>
+      <c r="D89">
+        <v>0.03232812233901816</v>
+      </c>
+      <c r="E89">
+        <v>0.09407567242462779</v>
+      </c>
+      <c r="F89">
+        <v>0.0341700435252118</v>
+      </c>
+      <c r="G89">
+        <v>0.01729946709544803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1875728723666825</v>
+        <v>-0.1887336415046993</v>
       </c>
       <c r="C90">
-        <v>-0.2470554876944691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2460029120162816</v>
+      </c>
+      <c r="D90">
+        <v>0.08736778696319185</v>
+      </c>
+      <c r="E90">
+        <v>0.1762045438235529</v>
+      </c>
+      <c r="F90">
+        <v>0.03383496007338575</v>
+      </c>
+      <c r="G90">
+        <v>-0.0546740631914933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1236529952018526</v>
+        <v>-0.1177901165757745</v>
       </c>
       <c r="C91">
-        <v>-0.0126465076483457</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01259368287851369</v>
+      </c>
+      <c r="D91">
+        <v>-0.01051338837164647</v>
+      </c>
+      <c r="E91">
+        <v>-0.2053927914241557</v>
+      </c>
+      <c r="F91">
+        <v>-0.04443615515854096</v>
+      </c>
+      <c r="G91">
+        <v>0.03241103234265306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1744874416884513</v>
+        <v>-0.1749901189965946</v>
       </c>
       <c r="C92">
-        <v>-0.2607605490394733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2724820805544637</v>
+      </c>
+      <c r="D92">
+        <v>0.123083029549139</v>
+      </c>
+      <c r="E92">
+        <v>0.141449088168525</v>
+      </c>
+      <c r="F92">
+        <v>0.09482694158146142</v>
+      </c>
+      <c r="G92">
+        <v>0.1065709476494332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1826833243548722</v>
+        <v>-0.1886855737122094</v>
       </c>
       <c r="C93">
-        <v>-0.2299775400013444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.231025554159733</v>
+      </c>
+      <c r="D93">
+        <v>0.07118551657773595</v>
+      </c>
+      <c r="E93">
+        <v>0.06349417936329921</v>
+      </c>
+      <c r="F93">
+        <v>0.06763762363629332</v>
+      </c>
+      <c r="G93">
+        <v>0.004242537782357308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1191959980030018</v>
+        <v>-0.1140582375746094</v>
       </c>
       <c r="C94">
-        <v>0.03560366892231905</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03518532870841351</v>
+      </c>
+      <c r="D94">
+        <v>-0.02003165409887891</v>
+      </c>
+      <c r="E94">
+        <v>-0.1655417031773317</v>
+      </c>
+      <c r="F94">
+        <v>0.02316205608499928</v>
+      </c>
+      <c r="G94">
+        <v>0.03263021155749741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.121775131930289</v>
+        <v>-0.1206160045341047</v>
       </c>
       <c r="C95">
-        <v>0.1063798018652364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1168218965496958</v>
+      </c>
+      <c r="D95">
+        <v>0.05441396004415767</v>
+      </c>
+      <c r="E95">
+        <v>0.05520382162026411</v>
+      </c>
+      <c r="F95">
+        <v>0.06078941915576763</v>
+      </c>
+      <c r="G95">
+        <v>0.08524841135474075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1252656000020118</v>
+        <v>-0.1220979043946468</v>
       </c>
       <c r="C96">
-        <v>0.1087558986227595</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1123681984005732</v>
+      </c>
+      <c r="D96">
+        <v>-0.03156015804388432</v>
+      </c>
+      <c r="E96">
+        <v>0.02009232238406509</v>
+      </c>
+      <c r="F96">
+        <v>0.04958074953304005</v>
+      </c>
+      <c r="G96">
+        <v>-0.02447500729069433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1977075910627609</v>
+        <v>-0.2031035938148061</v>
       </c>
       <c r="C97">
-        <v>0.03124589442850377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02337871688199607</v>
+      </c>
+      <c r="D97">
+        <v>-0.2535756094562084</v>
+      </c>
+      <c r="E97">
+        <v>0.1356993435845092</v>
+      </c>
+      <c r="F97">
+        <v>-0.7830232463609145</v>
+      </c>
+      <c r="G97">
+        <v>0.3530001430772121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1982064502834082</v>
+        <v>-0.2053118377690338</v>
       </c>
       <c r="C98">
-        <v>0.01031696777186168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01306603700391368</v>
+      </c>
+      <c r="D98">
+        <v>-0.05735759270113185</v>
+      </c>
+      <c r="E98">
+        <v>0.1068909150753371</v>
+      </c>
+      <c r="F98">
+        <v>-0.1375465573216595</v>
+      </c>
+      <c r="G98">
+        <v>-0.3161675713910661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.0510205977741393</v>
+        <v>-0.05095459110903969</v>
       </c>
       <c r="C99">
-        <v>0.05812617127418727</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05759482123934413</v>
+      </c>
+      <c r="D99">
+        <v>0.000447127625679873</v>
+      </c>
+      <c r="E99">
+        <v>0.03785435141788766</v>
+      </c>
+      <c r="F99">
+        <v>0.03533550329271615</v>
+      </c>
+      <c r="G99">
+        <v>0.008125982511241411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1148420036790774</v>
+        <v>-0.1097980270691256</v>
       </c>
       <c r="C100">
-        <v>0.2734246001857705</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2632674724134427</v>
+      </c>
+      <c r="D100">
+        <v>-0.07801967212221915</v>
+      </c>
+      <c r="E100">
+        <v>0.3217117156426721</v>
+      </c>
+      <c r="F100">
+        <v>-0.1745953427365583</v>
+      </c>
+      <c r="G100">
+        <v>-0.472592978418571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02636450027349381</v>
+        <v>-0.02746695838463071</v>
       </c>
       <c r="C101">
-        <v>0.05530696145761493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05574380887533677</v>
+      </c>
+      <c r="D101">
+        <v>0.04833345776020376</v>
+      </c>
+      <c r="E101">
+        <v>0.02227223305334818</v>
+      </c>
+      <c r="F101">
+        <v>0.0423766813835135</v>
+      </c>
+      <c r="G101">
+        <v>0.03899618456913465</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
